--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C2D2B42-D746-9E43-BCB5-8104FDEDE92E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B78859E-1F9D-C44F-8EB4-5BA55CAFDE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14320" yWindow="2300" windowWidth="27660" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="10480" yWindow="1680" windowWidth="27660" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,13 @@
   <si>
     <t>Binary Search</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree and Divide Conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144. Binary Tree Preorder Traversal</t>
   </si>
 </sst>
 </file>
@@ -445,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1004957-B7B1-B346-9039-0E6E93DD6010}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -496,6 +503,16 @@
     <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -506,6 +523,7 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{85D9578A-507F-8842-A7E3-949036D5E4E9}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{10469261-8B7E-E540-B617-356A1D42D9CA}"/>
     <hyperlink ref="A2" r:id="rId5" xr:uid="{A77686F2-6EDE-944E-B051-1EF417598D20}"/>
+    <hyperlink ref="A12" r:id="rId6" xr:uid="{DDB3F006-8D58-EE49-8705-0B51D8E9EEE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B78859E-1F9D-C44F-8EB4-5BA55CAFDE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46754DE5-F752-D24B-9A7B-589CA62007FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="1680" windowWidth="27660" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="13200" yWindow="960" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>144. Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>1120. Maximun Average Subtree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>426. Convert Binary Search Tree to Sorted Doubly Linked List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114. Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>110. Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>257. Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1004957-B7B1-B346-9039-0E6E93DD6010}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -513,6 +537,41 @@
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -524,6 +583,13 @@
     <hyperlink ref="A3" r:id="rId4" xr:uid="{10469261-8B7E-E540-B617-356A1D42D9CA}"/>
     <hyperlink ref="A2" r:id="rId5" xr:uid="{A77686F2-6EDE-944E-B051-1EF417598D20}"/>
     <hyperlink ref="A12" r:id="rId6" xr:uid="{DDB3F006-8D58-EE49-8705-0B51D8E9EEE5}"/>
+    <hyperlink ref="A16" r:id="rId7" xr:uid="{60B49409-3EC6-BF47-A7B4-8E47F79BB303}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{639A104B-26E3-A645-A653-81A5E97BAB9B}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{24AE5941-FD24-D74D-B1FE-584CC4153E9B}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{69F61065-BFDF-8146-9EF4-1BDDDB3E0AC5}"/>
+    <hyperlink ref="A15" r:id="rId11" xr:uid="{B48C18B7-FB13-854D-B02B-E09CC9754E39}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{9D0AC9C3-9583-FC41-88C6-CF0C627E37C0}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{1EFD4278-84F8-CB41-8EA1-A4E221ECF336}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46754DE5-F752-D24B-9A7B-589CA62007FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731509A-FA65-EE46-A03A-173872102A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="960" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="16200" yWindow="960" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dailyprep" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,99 @@
   </si>
   <si>
     <t>104. Maximum Depth of Binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>261. Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Algo &amp; data structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Sum
+(Array)</t>
+  </si>
+  <si>
+    <t>Happy Number
+(Hash Table)</t>
+  </si>
+  <si>
+    <t>Valid Parentheses
+(Stack)</t>
+  </si>
+  <si>
+    <t>Maximum Subarray
+(Array)</t>
+  </si>
+  <si>
+    <t>Design HashMap
+(Hash Table)</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree
+(Tree)</t>
+  </si>
+  <si>
+    <t>Min Stack
+(Stack)</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree
+(Tree)</t>
+  </si>
+  <si>
+    <t>Number of Islands
+(Queue)</t>
+  </si>
+  <si>
+    <t>Rotting Oranges
+(Breadth-First Search)</t>
+  </si>
+  <si>
+    <t>Open the Lock
+(Queue)</t>
+  </si>
+  <si>
+    <t>Flood Fill
+(Depth-First Search)</t>
+  </si>
+  <si>
+    <t>Symmetric Tree
+(Breadth-First Search)</t>
+  </si>
+  <si>
+    <t>Path Sum III
+(Depth-First Search)</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self
+(Array)</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Game of Life
+(Array)</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union-find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133. Clone Graph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +197,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +224,40 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,11 +285,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,16 +625,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1004957-B7B1-B346-9039-0E6E93DD6010}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -530,7 +679,7 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -559,19 +708,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -590,6 +760,467 @@
     <hyperlink ref="A15" r:id="rId11" xr:uid="{B48C18B7-FB13-854D-B02B-E09CC9754E39}"/>
     <hyperlink ref="A14" r:id="rId12" xr:uid="{9D0AC9C3-9583-FC41-88C6-CF0C627E37C0}"/>
     <hyperlink ref="A13" r:id="rId13" xr:uid="{1EFD4278-84F8-CB41-8EA1-A4E221ECF336}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{D72FB872-9CAF-0E45-8DFA-903D703FFEC3}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{5468FBBA-02FA-AD46-AAAC-FC6ECA4D9E5E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F99C9D-4A95-A144-A8D9-08B330D64260}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="34">
+      <c r="A2" s="4">
+        <v>43871</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34">
+      <c r="A3" s="4">
+        <v>43872</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34">
+      <c r="A4" s="4">
+        <v>43873</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34">
+      <c r="A5" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34">
+      <c r="A6" s="4">
+        <v>43875</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34">
+      <c r="A7" s="4">
+        <v>43876</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34">
+      <c r="A8" s="4">
+        <v>43877</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="34">
+      <c r="A9" s="4">
+        <v>43878</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>43879</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34">
+      <c r="A11" s="4">
+        <v>43880</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>43881</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
+        <v>43882</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>43883</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>43884</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
+        <v>43885</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4">
+        <v>43886</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>43887</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4">
+        <v>43888</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4">
+        <v>43889</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4">
+        <v>43890</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4">
+        <v>43891</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4">
+        <v>43892</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4">
+        <v>43893</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4">
+        <v>43894</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4">
+        <v>43895</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
+        <v>43896</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4">
+        <v>43897</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
+        <v>43898</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4">
+        <v>43899</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4">
+        <v>43900</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4">
+        <v>43902</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4">
+        <v>43903</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4">
+        <v>43904</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4">
+        <v>43905</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4">
+        <v>43907</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4">
+        <v>43908</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4">
+        <v>43909</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4">
+        <v>43910</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4">
+        <v>43911</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4">
+        <v>43912</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4">
+        <v>43913</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4">
+        <v>43915</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4">
+        <v>43918</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4">
+        <v>43919</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
+        <v>43920</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4">
+        <v>43921</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/two-sum/" xr:uid="{A65D3974-D228-AF45-B751-F874DF3C9971}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://leetcode.com/problems/happy-number/" xr:uid="{734FC9F0-0A35-C245-9361-9B01FA660481}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://leetcode.com/problems/valid-parentheses/" xr:uid="{7A413151-2C31-0C4B-ABAB-5A3A3ED4F578}"/>
+    <hyperlink ref="C3" r:id="rId4" display="https://leetcode.com/problems/maximum-subarray/" xr:uid="{5EBBABE4-D95E-F042-B6B1-905A134A3709}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://leetcode.com/problems/design-hashmap/" xr:uid="{44663155-0131-6F46-AF1D-AE75E26EDF29}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://leetcode.com/problems/subtree-of-another-tree/" xr:uid="{FB3E3804-A624-7547-8AEF-73D8AAE579E7}"/>
+    <hyperlink ref="B5" r:id="rId7" display="https://leetcode.com/problems/min-stack/" xr:uid="{F05B350B-2F3A-1E49-B690-5F983620A5BC}"/>
+    <hyperlink ref="C5" r:id="rId8" display="https://leetcode.com/problems/diameter-of-binary-tree/" xr:uid="{09393F79-24E7-5E4E-BEF4-2CB0BD25A9A9}"/>
+    <hyperlink ref="B6" r:id="rId9" display="https://leetcode.com/explore/learn/card/queue-stack/231/practical-application-queue/1374/" xr:uid="{0CF4CE88-A8A3-404A-A3EF-18BD46F3DA3B}"/>
+    <hyperlink ref="C6" r:id="rId10" display="https://leetcode.com/problems/rotting-oranges/" xr:uid="{E5928C27-4ACE-B84B-8C10-4BFC4CB11586}"/>
+    <hyperlink ref="B7" r:id="rId11" display="https://leetcode.com/explore/learn/card/queue-stack/231/practical-application-queue/1375/" xr:uid="{50FA8897-6100-1244-865D-EA9ED19D2CB4}"/>
+    <hyperlink ref="C7" r:id="rId12" display="https://leetcode.com/problems/flood-fill/" xr:uid="{6E256E71-FE0D-AA48-BD0D-81E95D94C222}"/>
+    <hyperlink ref="B8" r:id="rId13" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{6D43850B-C1C9-884E-8384-264064659CB1}"/>
+    <hyperlink ref="C8" r:id="rId14" display="https://leetcode.com/problems/path-sum-iii/" xr:uid="{2B592233-B34C-4941-B5BD-D384A02A2077}"/>
+    <hyperlink ref="B9" r:id="rId15" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{B386FAC3-515E-1E40-B5D8-83787CFC0D52}"/>
+    <hyperlink ref="B11" r:id="rId16" display="https://leetcode.com/problems/game-of-life/" xr:uid="{8E9AFC8C-C4BD-9947-A857-89BBE250A217}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731509A-FA65-EE46-A03A-173872102A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A502F73-8548-CF4A-89D1-541CE56C31EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16200" yWindow="960" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A502F73-8548-CF4A-89D1-541CE56C31EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B284173-D337-984B-9192-5313EEB0673A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="960" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="13200" yWindow="960" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,30 @@
   </si>
   <si>
     <t>133. Clone Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Graph Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toplogical sorting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>444. Sequence Reconstruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207. Course Schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>210. Course Schedule II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zombie in Martrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -298,7 +322,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -625,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1004957-B7B1-B346-9039-0E6E93DD6010}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -724,7 +748,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -742,6 +766,36 @@
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -762,6 +816,9 @@
     <hyperlink ref="A13" r:id="rId13" xr:uid="{1EFD4278-84F8-CB41-8EA1-A4E221ECF336}"/>
     <hyperlink ref="A22" r:id="rId14" xr:uid="{D72FB872-9CAF-0E45-8DFA-903D703FFEC3}"/>
     <hyperlink ref="A23" r:id="rId15" xr:uid="{5468FBBA-02FA-AD46-AAAC-FC6ECA4D9E5E}"/>
+    <hyperlink ref="A28" r:id="rId16" xr:uid="{27BEF850-9E1F-EC41-8207-4071A1DE835A}"/>
+    <hyperlink ref="A26" r:id="rId17" xr:uid="{60700408-60D7-CA41-99AD-FAB74859C05E}"/>
+    <hyperlink ref="A27" r:id="rId18" xr:uid="{74568B08-ED4E-3646-BB63-76D42281935B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B284173-D337-984B-9192-5313EEB0673A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21F656-D541-DC41-8956-444D320DBDD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="960" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="13200" yWindow="960" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="dailyprep" sheetId="2" r:id="rId2"/>
+    <sheet name="2nd round" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +215,148 @@
   </si>
   <si>
     <t>Zombie in Martrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705. Design HashSet</t>
+  </si>
+  <si>
+    <t>28. Implement strStr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the Town Judge
+(Graph)</t>
+  </si>
+  <si>
+    <t>Minimum Cost Tree from Leaf Values
+(Tree)</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square
+(Binary Search)</t>
+  </si>
+  <si>
+    <t>Task Scheduler
+(Queue)</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K
+(Hash Table)</t>
+  </si>
+  <si>
+    <t>Search Insert Position
+(Binary Search)</t>
+  </si>
+  <si>
+    <t>Range Sum of BST
+(Recursion)</t>
+  </si>
+  <si>
+    <t>Partition Array for Maximum Sum
+(Graph)</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters
+(Hash Table)</t>
+  </si>
+  <si>
+    <t>Nth Tribonacci Number
+(Recursion)</t>
+  </si>
+  <si>
+    <t>Design Circular Queue
+(Queue)</t>
+  </si>
+  <si>
+    <t>Merge Sort (Medium)</t>
+  </si>
+  <si>
+    <t>Last Stone Weight
+(Heap)</t>
+  </si>
+  <si>
+    <t>Decode String
+(Stack, Medium)</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator
+(Tree)</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream
+(Heap)</t>
+  </si>
+  <si>
+    <t>Sort an Array
+(Quick Sort, Medium)</t>
+  </si>
+  <si>
+    <t>Asteroid Collision
+(Stack, Medium)</t>
+  </si>
+  <si>
+    <t>Task Scheduler
+(Queue, Medium)</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View
+(BFS, Medium)</t>
+  </si>
+  <si>
+    <t>Group Anagrams
+(Hash Table, Medium)</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?
+(Graph, Medium)</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II
+(Binary Search, Medium)</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin
+(Quick Sort, Medium)</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin
+(Heap, Medium)</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array
+(Binary Search, Medium)</t>
+  </si>
+  <si>
+    <t>Course Schedule II
+(Graph, Medium)</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in Array
+(Heap, Medium)</t>
+  </si>
+  <si>
+    <t>Number of Islands
+(DFS, Medium)</t>
+  </si>
+  <si>
+    <t>Decode String
+(DFS, Medium)</t>
+  </si>
+  <si>
+    <t>Design Circular Dequeue
+(Queue, Medium)</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal
+(BFS, Medium)</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K
+(Hash Table, Medium)</t>
+  </si>
+  <si>
+    <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1004957-B7B1-B346-9039-0E6E93DD6010}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -829,7 +972,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -905,7 +1048,7 @@
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="4">
-        <v>43876</v>
+        <v>43878</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>31</v>
@@ -916,7 +1059,7 @@
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="4">
-        <v>43877</v>
+        <v>43879</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -927,7 +1070,7 @@
     </row>
     <row r="9" spans="1:3" ht="34">
       <c r="A9" s="4">
-        <v>43878</v>
+        <v>43880</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>35</v>
@@ -938,7 +1081,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4">
-        <v>43879</v>
+        <v>43881</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>36</v>
@@ -949,7 +1092,7 @@
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="4">
-        <v>43880</v>
+        <v>43882</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -958,124 +1101,192 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="4">
-        <v>43881</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
+        <v>43885</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34">
       <c r="A13" s="4">
-        <v>43882</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
+        <v>43886</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34">
       <c r="A14" s="4">
-        <v>43883</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
+        <v>43887</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="4">
-        <v>43884</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
+        <v>43888</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="51">
       <c r="A16" s="4">
-        <v>43885</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
+        <v>43889</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34">
       <c r="A17" s="4">
-        <v>43886</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
+        <v>43892</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34">
       <c r="A18" s="4">
-        <v>43887</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
+        <v>43893</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34">
       <c r="A19" s="4">
-        <v>43888</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
+        <v>43894</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34">
       <c r="A20" s="4">
-        <v>43889</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
+        <v>43895</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" s="4">
-        <v>43890</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
+        <v>43896</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="34">
       <c r="A22" s="4">
-        <v>43891</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
+        <v>43899</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" s="4">
-        <v>43892</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
+        <v>43900</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34">
       <c r="A24" s="4">
-        <v>43893</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
+        <v>43901</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="34">
       <c r="A25" s="4">
-        <v>43894</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
+        <v>43902</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" s="4">
-        <v>43895</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
+        <v>43903</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="34">
       <c r="A27" s="4">
-        <v>43896</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
+        <v>43906</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="34">
       <c r="A28" s="4">
-        <v>43897</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+        <v>43907</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4">
@@ -1278,6 +1489,71 @@
     <hyperlink ref="C8" r:id="rId14" display="https://leetcode.com/problems/path-sum-iii/" xr:uid="{2B592233-B34C-4941-B5BD-D384A02A2077}"/>
     <hyperlink ref="B9" r:id="rId15" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{B386FAC3-515E-1E40-B5D8-83787CFC0D52}"/>
     <hyperlink ref="B11" r:id="rId16" display="https://leetcode.com/problems/game-of-life/" xr:uid="{8E9AFC8C-C4BD-9947-A857-89BBE250A217}"/>
+    <hyperlink ref="B12" r:id="rId17" display="https://leetcode.com/problems/find-the-town-judge/" xr:uid="{3CC705E6-345F-BE44-A94C-99D21A09B2A4}"/>
+    <hyperlink ref="C12" r:id="rId18" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/" xr:uid="{292C8A41-AF11-7B4C-BF13-1FB10B1F21A1}"/>
+    <hyperlink ref="B13" r:id="rId19" display="https://leetcode.com/problems/valid-perfect-square/" xr:uid="{46ED49E7-EB14-BA4F-B31B-159AD62D5A69}"/>
+    <hyperlink ref="C13" r:id="rId20" display="https://leetcode.com/problems/task-scheduler/" xr:uid="{AD5E0F90-8565-6948-812C-B61F6A389167}"/>
+    <hyperlink ref="B14" r:id="rId21" display="https://leetcode.com/problems/subarray-sum-equals-k/" xr:uid="{51968F2F-913F-1A4C-9C86-8C02ECA2D7FB}"/>
+    <hyperlink ref="C14" r:id="rId22" display="https://leetcode.com/problems/search-insert-position/" xr:uid="{4B368E08-1084-CB4A-9573-1D4C79FDB598}"/>
+    <hyperlink ref="B15" r:id="rId23" display="https://leetcode.com/problems/range-sum-of-bst/" xr:uid="{11858C33-A2C7-374F-9519-E745CD9971E6}"/>
+    <hyperlink ref="C15" r:id="rId24" display="https://leetcode.com/problems/partition-array-for-maximum-sum/" xr:uid="{0514EEC8-F154-8847-8AAD-4A56F572A366}"/>
+    <hyperlink ref="B16" r:id="rId25" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{89CE34ED-1213-494B-9C1A-4AD15AF76B1B}"/>
+    <hyperlink ref="C16" r:id="rId26" display="https://leetcode.com/problems/n-th-tribonacci-number/" xr:uid="{45C5032B-BB8B-284E-B737-3521D7AAA1D1}"/>
+    <hyperlink ref="B17" r:id="rId27" display="https://leetcode.com/problems/design-circular-queue/" xr:uid="{BE15E246-1D66-6A4C-A8F9-9982EFF4852B}"/>
+    <hyperlink ref="B18" r:id="rId28" display="https://leetcode.com/problems/last-stone-weight/" xr:uid="{743863EC-69B3-F642-95DF-2588638B8F2F}"/>
+    <hyperlink ref="C18" r:id="rId29" display="https://leetcode.com/problems/decode-string/" xr:uid="{6CE2BB51-3A95-B94C-B1B0-5590A6B69BFE}"/>
+    <hyperlink ref="B19" r:id="rId30" display="https://leetcode.com/problems/binary-search-tree-iterator/" xr:uid="{285F77A0-2CF2-534F-9783-E191266F32FB}"/>
+    <hyperlink ref="C19" r:id="rId31" display="https://leetcode.com/problems/kth-largest-element-in-a-stream/" xr:uid="{BC7BC0D4-1763-8C46-BCCB-F1C3C53BC3C5}"/>
+    <hyperlink ref="B20" r:id="rId32" display="https://leetcode.com/problems/sort-an-array/" xr:uid="{7C1DE425-51DE-4440-8354-50738315A87C}"/>
+    <hyperlink ref="C20" r:id="rId33" display="https://leetcode.com/problems/asteroid-collision/" xr:uid="{DD876E0F-B25A-D84E-8AE4-7BF8A2494833}"/>
+    <hyperlink ref="B21" r:id="rId34" display="https://leetcode.com/problems/task-scheduler/" xr:uid="{0F166AC6-B96E-B745-BEF4-C3F32F67507C}"/>
+    <hyperlink ref="C21" r:id="rId35" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{085657F0-DBE3-4946-B428-8D9BD627FA76}"/>
+    <hyperlink ref="B22" r:id="rId36" display="https://leetcode.com/problems/group-anagrams/" xr:uid="{9CF61050-970A-FE48-89B8-309842CC8DA4}"/>
+    <hyperlink ref="B23" r:id="rId37" display="https://leetcode.com/problems/is-graph-bipartite/" xr:uid="{26BE4739-C156-8246-8657-418F8E2C1A24}"/>
+    <hyperlink ref="C23" r:id="rId38" display="https://leetcode.com/problems/search-a-2d-matrix-ii/" xr:uid="{5C1DD096-BE17-904B-8A5C-088D5BC3FF16}"/>
+    <hyperlink ref="B24" r:id="rId39" display="https://leetcode.com/problems/k-closest-points-to-origin/" xr:uid="{2263A1B8-4CCA-C840-9535-4A3424091D5B}"/>
+    <hyperlink ref="C24" r:id="rId40" display="https://leetcode.com/problems/k-closest-points-to-origin/" xr:uid="{E7DB7386-0405-B148-91AF-DC377494437A}"/>
+    <hyperlink ref="B25" r:id="rId41" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{52BEDA67-15FA-7C42-9C72-3090E638F094}"/>
+    <hyperlink ref="C25" r:id="rId42" display="https://leetcode.com/problems/course-schedule-ii/" xr:uid="{C8EBEB2C-5E87-2B41-A752-8786F6D099A8}"/>
+    <hyperlink ref="B26" r:id="rId43" display="https://leetcode.com/problems/kth-largest-element-in-an-array/" xr:uid="{C847805F-4A6F-C54F-AA53-446BC98954A5}"/>
+    <hyperlink ref="C26" r:id="rId44" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{5D4D5974-F95B-354A-9349-8DB9AAB5605F}"/>
+    <hyperlink ref="B27" r:id="rId45" display="https://leetcode.com/problems/decode-string/" xr:uid="{AE737753-379C-D048-8D13-E35BE2BE9F62}"/>
+    <hyperlink ref="C27" r:id="rId46" display="https://leetcode.com/problems/design-circular-deque/" xr:uid="{A4EDE6C5-AF68-F044-8A1F-808F3CFBFAA9}"/>
+    <hyperlink ref="B28" r:id="rId47" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/" xr:uid="{0959740E-9AA0-C74A-AD78-6B003D9568DF}"/>
+    <hyperlink ref="C28" r:id="rId48" display="https://leetcode.com/problems/subarray-sum-equals-k/" xr:uid="{6FA2BEC2-E93A-1446-BA1B-87C3C71C0525}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{195A4F1D-753B-144A-BB53-0F6DB4411E8E}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{6BD839BE-2F7A-1D4E-AC05-B698BC8AC37C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21F656-D541-DC41-8956-444D320DBDD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B82C7-F6FE-0648-AA75-FAAC28BD0AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="960" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,9 @@
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78. Subsets</t>
   </si>
 </sst>
 </file>
@@ -1528,9 +1531,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1549,11 +1554,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{195A4F1D-753B-144A-BB53-0F6DB4411E8E}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{6BD839BE-2F7A-1D4E-AC05-B698BC8AC37C}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{5BDE9320-86F7-7346-A853-D59D5FA4C70C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B82C7-F6FE-0648-AA75-FAAC28BD0AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18611BE5-0AC3-2147-9284-4B75A1662A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="960" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="18140" yWindow="460" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,24 @@
   </si>
   <si>
     <t>78. Subsets</t>
+  </si>
+  <si>
+    <t>90. Subsets II</t>
+  </si>
+  <si>
+    <t>Method used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. Find First and Last Position of Element in Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -370,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -429,6 +447,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +503,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,7 +829,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1531,33 +1562,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,6 +1712,13 @@
     <hyperlink ref="A3" r:id="rId1" xr:uid="{195A4F1D-753B-144A-BB53-0F6DB4411E8E}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{6BD839BE-2F7A-1D4E-AC05-B698BC8AC37C}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{5BDE9320-86F7-7346-A853-D59D5FA4C70C}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{AFD51EB8-5302-9647-AC5A-FC2A640C1E57}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{B3E07A9F-0AC3-3640-AA42-FC953538198A}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{3EA069E8-3359-4B45-B858-B705AA983670}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{F3E4A9C4-6A0A-8948-A5FB-FA9F1A751097}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{8E133BF9-C63F-F249-9955-323C169F1CD0}"/>
+    <hyperlink ref="A7" r:id="rId9" xr:uid="{2B298B48-6932-FF4F-8EE5-7921F9B53285}"/>
+    <hyperlink ref="A15" r:id="rId10" xr:uid="{948C5D30-3E39-D646-854E-0AF8A2BEA6BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02472FF-6023-D948-BECC-3337AAE98BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1E9524-46D6-5D4D-81E7-18D6232A5F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="460" windowWidth="15600" windowHeight="17040" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="13200" yWindow="460" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16510" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16512" uniqueCount="99">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,13 @@
   </si>
   <si>
     <t>47. Permutations II</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>BST, DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -852,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1004957-B7B1-B346-9039-0E6E93DD6010}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
@@ -1588,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
   <dimension ref="A1:XFD24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50940,8 +50947,12 @@
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
@@ -50964,6 +50975,7 @@
     <hyperlink ref="A11" r:id="rId12" xr:uid="{54ACE77D-B3E0-D640-9C64-C02832182CCD}"/>
     <hyperlink ref="A6" r:id="rId13" xr:uid="{55528821-4026-2A44-A8CD-097A87C88BFC}"/>
     <hyperlink ref="A7" r:id="rId14" xr:uid="{EF97A156-4FBE-7A48-AFF6-8BB7AE76BCB4}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1E9524-46D6-5D4D-81E7-18D6232A5F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DF453B-D66C-1447-B2BC-AEF3B4369FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="460" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16512" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16516" uniqueCount="101">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,13 @@
   <si>
     <t>BST, DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BST, recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94. Binary Tree Inorder Traversal</t>
   </si>
 </sst>
 </file>
@@ -1593,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD24"/>
+  <dimension ref="A1:XFD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50956,7 +50963,21 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -50976,6 +50997,8 @@
     <hyperlink ref="A6" r:id="rId13" xr:uid="{55528821-4026-2A44-A8CD-097A87C88BFC}"/>
     <hyperlink ref="A7" r:id="rId14" xr:uid="{EF97A156-4FBE-7A48-AFF6-8BB7AE76BCB4}"/>
     <hyperlink ref="A23" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
+    <hyperlink ref="A24" r:id="rId16" xr:uid="{766BD39B-BB34-0440-A338-4C76A4F7D8BB}"/>
+    <hyperlink ref="A25" r:id="rId17" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DF453B-D66C-1447-B2BC-AEF3B4369FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33B351-F5A6-824D-A65C-307DE879F3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="460" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16516" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16520" uniqueCount="103">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,13 @@
   </si>
   <si>
     <t>94. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1600,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD25"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50977,6 +50984,22 @@
       </c>
       <c r="B25" s="3" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -50999,6 +51022,8 @@
     <hyperlink ref="A23" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
     <hyperlink ref="A24" r:id="rId16" xr:uid="{766BD39B-BB34-0440-A338-4C76A4F7D8BB}"/>
     <hyperlink ref="A25" r:id="rId17" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
+    <hyperlink ref="A26" r:id="rId18" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33B351-F5A6-824D-A65C-307DE879F3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4EAC7-0C78-E34A-8349-EF387E68A9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="460" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16520" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16524" uniqueCount="105">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,12 @@
   <si>
     <t>Divide and Conquer</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112. Path Sum</t>
+  </si>
+  <si>
+    <t>113. Path Sum II</t>
   </si>
 </sst>
 </file>
@@ -1607,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD27"/>
+  <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50999,6 +51005,22 @@
         <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -51024,6 +51046,8 @@
     <hyperlink ref="A25" r:id="rId17" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
     <hyperlink ref="A26" r:id="rId18" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
     <hyperlink ref="A27" r:id="rId19" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
+    <hyperlink ref="A28" r:id="rId20" xr:uid="{5674BB1E-88BD-DA40-B69E-B05B9CC85877}"/>
+    <hyperlink ref="A29" r:id="rId21" xr:uid="{4DD37E9A-DB13-384A-80A7-D7C64A513979}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4EAC7-0C78-E34A-8349-EF387E68A9BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C304739-C850-2E46-A285-AAD661E27B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="460" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16524" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16532" uniqueCount="110">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,23 @@
   </si>
   <si>
     <t>113. Path Sum II</t>
+  </si>
+  <si>
+    <t>DC, Recursion</t>
+  </si>
+  <si>
+    <t>DC, Recursion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1120. Maximum Average Subtree</t>
+  </si>
+  <si>
+    <t>DC, Recursion, Result type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -1613,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51022,6 +51039,38 @@
       </c>
       <c r="B29" s="3" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -51043,11 +51092,15 @@
     <hyperlink ref="A7" r:id="rId14" xr:uid="{EF97A156-4FBE-7A48-AFF6-8BB7AE76BCB4}"/>
     <hyperlink ref="A23" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
     <hyperlink ref="A24" r:id="rId16" xr:uid="{766BD39B-BB34-0440-A338-4C76A4F7D8BB}"/>
-    <hyperlink ref="A25" r:id="rId17" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
-    <hyperlink ref="A26" r:id="rId18" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
-    <hyperlink ref="A27" r:id="rId19" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
-    <hyperlink ref="A28" r:id="rId20" xr:uid="{5674BB1E-88BD-DA40-B69E-B05B9CC85877}"/>
-    <hyperlink ref="A29" r:id="rId21" xr:uid="{4DD37E9A-DB13-384A-80A7-D7C64A513979}"/>
+    <hyperlink ref="A26" r:id="rId17" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
+    <hyperlink ref="A27" r:id="rId18" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
+    <hyperlink ref="A28" r:id="rId19" xr:uid="{5674BB1E-88BD-DA40-B69E-B05B9CC85877}"/>
+    <hyperlink ref="A29" r:id="rId20" xr:uid="{4DD37E9A-DB13-384A-80A7-D7C64A513979}"/>
+    <hyperlink ref="A25" r:id="rId21" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
+    <hyperlink ref="A30" r:id="rId22" xr:uid="{9C6CBB48-FC6A-0342-820D-131ED63C64BB}"/>
+    <hyperlink ref="A31" r:id="rId23" xr:uid="{DF4F9FBE-2832-FA42-BB71-F5F5C70D9189}"/>
+    <hyperlink ref="A32" r:id="rId24" xr:uid="{49546ABF-9957-9C49-9796-DE8C14512CFE}"/>
+    <hyperlink ref="A33" r:id="rId25" xr:uid="{F28B39D2-FA8E-5345-BDF4-826A6DA532BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C304739-C850-2E46-A285-AAD661E27B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA575BA-697E-B74D-A1F8-80FA987C249C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="460" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16532" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16533" uniqueCount="111">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>426. Convert Binary Search Tree to Sorted Doubly Linked List</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD33"/>
+  <dimension ref="A1:XFD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51071,6 +51074,11 @@
       </c>
       <c r="B33" s="3" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -51101,6 +51109,7 @@
     <hyperlink ref="A31" r:id="rId23" xr:uid="{DF4F9FBE-2832-FA42-BB71-F5F5C70D9189}"/>
     <hyperlink ref="A32" r:id="rId24" xr:uid="{49546ABF-9957-9C49-9796-DE8C14512CFE}"/>
     <hyperlink ref="A33" r:id="rId25" xr:uid="{F28B39D2-FA8E-5345-BDF4-826A6DA532BA}"/>
+    <hyperlink ref="A34" r:id="rId26" xr:uid="{87F9C6A0-73DA-864E-BBCF-3DED964B81A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B959B9-E1BC-6E4F-8409-1E89C6843F53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD962119-52BD-5241-A403-444FC1A259EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16535" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16536" uniqueCount="118">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,10 +444,6 @@
     <t>426. Convert Binary Search Tree to Sorted Doubly Linked List</t>
   </si>
   <si>
-    <t>iterator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in-oder successor in bst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,6 +468,13 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>173. Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Iterative</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1658,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
   <dimension ref="A1:XFD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -50948,7 +50951,7 @@
     </row>
     <row r="16" spans="1:16384">
       <c r="A16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -50957,7 +50960,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
@@ -50970,7 +50973,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -51104,28 +51107,31 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>109</v>
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -51160,6 +51166,7 @@
     <hyperlink ref="A35" r:id="rId27" xr:uid="{4C75C0E1-D999-4A47-A6CE-48374DCA720A}"/>
     <hyperlink ref="A17" r:id="rId28" xr:uid="{3B94FA7D-EDB6-4846-8AAD-381690AF64D0}"/>
     <hyperlink ref="A16" r:id="rId29" xr:uid="{6EDEF3F9-0432-D844-890D-8420F3BC2AF6}"/>
+    <hyperlink ref="A36" r:id="rId30" xr:uid="{514FD178-6D87-C748-A4B8-CC1A014C7AA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D3C176-9630-884C-A388-8155B8020A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00DB6B-B53E-9D4F-9726-AEF9C2A69BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16547" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16549" uniqueCount="125">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,9 @@
     <t>topological sorting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>444. Sequence Reconstruction</t>
+  </si>
 </sst>
 </file>
 
@@ -1682,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD42"/>
+  <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51182,6 +51185,14 @@
         <v>122</v>
       </c>
       <c r="B42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -51223,6 +51234,7 @@
     <hyperlink ref="A40" r:id="rId33" xr:uid="{87E1C4E1-FBF2-3846-9F4F-3B0402F588E3}"/>
     <hyperlink ref="A41" r:id="rId34" xr:uid="{02911727-80A3-424E-9A27-1C24DB26318B}"/>
     <hyperlink ref="A42" r:id="rId35" xr:uid="{43EB9E60-EE91-EB43-B6DB-0F5ABE7D4DBA}"/>
+    <hyperlink ref="A43" r:id="rId36" xr:uid="{BD2B19E7-6C63-EE4E-9AC2-095A1062AC51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00DB6B-B53E-9D4F-9726-AEF9C2A69BE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271B96E-B1F3-454A-8144-BF3FDB90C0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271B96E-B1F3-454A-8144-BF3FDB90C0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75206426-DAC5-464E-8EF8-6B06F57971DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16549" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16553" uniqueCount="127">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,12 @@
   <si>
     <t>444. Sequence Reconstruction</t>
   </si>
+  <si>
+    <t>1197. Minimum Knight Moves</t>
+  </si>
+  <si>
+    <t>200. Number of Islands</t>
+  </si>
 </sst>
 </file>
 
@@ -1685,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51194,6 +51200,22 @@
       </c>
       <c r="B43" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -51235,6 +51257,8 @@
     <hyperlink ref="A41" r:id="rId34" xr:uid="{02911727-80A3-424E-9A27-1C24DB26318B}"/>
     <hyperlink ref="A42" r:id="rId35" xr:uid="{43EB9E60-EE91-EB43-B6DB-0F5ABE7D4DBA}"/>
     <hyperlink ref="A43" r:id="rId36" xr:uid="{BD2B19E7-6C63-EE4E-9AC2-095A1062AC51}"/>
+    <hyperlink ref="A45" r:id="rId37" xr:uid="{1CD381A4-4D96-4642-89C9-2EC4CA115633}"/>
+    <hyperlink ref="A44" r:id="rId38" xr:uid="{1C6EDE77-36F5-C148-BA64-2B180A1ABFDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75206426-DAC5-464E-8EF8-6B06F57971DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EE694-941F-7B47-8573-DAC623F2802E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="dailyprep" sheetId="2" r:id="rId2"/>
     <sheet name="2nd round" sheetId="3" r:id="rId3"/>
+    <sheet name="fbDE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1694,7 +1695,7 @@
   <dimension ref="A1:XFD45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51262,4 +51263,29 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CCA028-BA62-CB4F-A46F-255136D39D4B}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EE694-941F-7B47-8573-DAC623F2802E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC541B0-E252-5040-BDB9-EA044C426120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16553" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16557" uniqueCount="129">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,12 @@
   <si>
     <t>200. Number of Islands</t>
   </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>40. Combination Sum II</t>
+  </si>
 </sst>
 </file>
 
@@ -1692,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD45"/>
+  <dimension ref="A1:XFD47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="B46" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51217,6 +51223,22 @@
       </c>
       <c r="B45" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -51260,6 +51282,8 @@
     <hyperlink ref="A43" r:id="rId36" xr:uid="{BD2B19E7-6C63-EE4E-9AC2-095A1062AC51}"/>
     <hyperlink ref="A45" r:id="rId37" xr:uid="{1CD381A4-4D96-4642-89C9-2EC4CA115633}"/>
     <hyperlink ref="A44" r:id="rId38" xr:uid="{1C6EDE77-36F5-C148-BA64-2B180A1ABFDA}"/>
+    <hyperlink ref="A46" r:id="rId39" xr:uid="{96C5C09F-499C-B14C-8B1D-D8A2CE7DE56B}"/>
+    <hyperlink ref="A47" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC541B0-E252-5040-BDB9-EA044C426120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A53B7EA-364A-184F-85AB-520D27E3018B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16557" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16561" uniqueCount="131">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,12 @@
   <si>
     <t>40. Combination Sum II</t>
   </si>
+  <si>
+    <t>29. Divide Two Integers</t>
+  </si>
+  <si>
+    <t>69. Sqrt(x)</t>
+  </si>
 </sst>
 </file>
 
@@ -1698,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD47"/>
+  <dimension ref="A1:XFD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51007,17 +51013,17 @@
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
-        <v>88</v>
+      <c r="A19" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -51025,50 +51031,52 @@
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
+      <c r="A21" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>99</v>
@@ -51076,7 +51084,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>99</v>
@@ -51084,47 +51092,47 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
+        <v>15</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>103</v>
@@ -51132,112 +51140,128 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>108</v>
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>109</v>
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
+      <c r="A38" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" t="s">
-        <v>114</v>
+      <c r="A39" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>120</v>
+      <c r="A41" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>18</v>
       </c>
     </row>
@@ -51252,38 +51276,40 @@
     <hyperlink ref="A14" r:id="rId6" xr:uid="{F3E4A9C4-6A0A-8948-A5FB-FA9F1A751097}"/>
     <hyperlink ref="A13" r:id="rId7" xr:uid="{8E133BF9-C63F-F249-9955-323C169F1CD0}"/>
     <hyperlink ref="A8" r:id="rId8" xr:uid="{2B298B48-6932-FF4F-8EE5-7921F9B53285}"/>
-    <hyperlink ref="A19" r:id="rId9" xr:uid="{948C5D30-3E39-D646-854E-0AF8A2BEA6BC}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{948C5D30-3E39-D646-854E-0AF8A2BEA6BC}"/>
     <hyperlink ref="A9" r:id="rId10" xr:uid="{207046A7-6369-4943-9497-3DDDA230AE02}"/>
     <hyperlink ref="A10" r:id="rId11" xr:uid="{9554DAA6-869C-7C47-85A2-35EF59F4B69B}"/>
     <hyperlink ref="A11" r:id="rId12" xr:uid="{54ACE77D-B3E0-D640-9C64-C02832182CCD}"/>
     <hyperlink ref="A6" r:id="rId13" xr:uid="{55528821-4026-2A44-A8CD-097A87C88BFC}"/>
     <hyperlink ref="A7" r:id="rId14" xr:uid="{EF97A156-4FBE-7A48-AFF6-8BB7AE76BCB4}"/>
-    <hyperlink ref="A20" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
-    <hyperlink ref="A21" r:id="rId16" xr:uid="{766BD39B-BB34-0440-A338-4C76A4F7D8BB}"/>
-    <hyperlink ref="A23" r:id="rId17" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
-    <hyperlink ref="A24" r:id="rId18" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
-    <hyperlink ref="A25" r:id="rId19" xr:uid="{5674BB1E-88BD-DA40-B69E-B05B9CC85877}"/>
-    <hyperlink ref="A26" r:id="rId20" xr:uid="{4DD37E9A-DB13-384A-80A7-D7C64A513979}"/>
-    <hyperlink ref="A22" r:id="rId21" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
-    <hyperlink ref="A27" r:id="rId22" xr:uid="{9C6CBB48-FC6A-0342-820D-131ED63C64BB}"/>
-    <hyperlink ref="A28" r:id="rId23" xr:uid="{DF4F9FBE-2832-FA42-BB71-F5F5C70D9189}"/>
-    <hyperlink ref="A29" r:id="rId24" xr:uid="{49546ABF-9957-9C49-9796-DE8C14512CFE}"/>
-    <hyperlink ref="A30" r:id="rId25" xr:uid="{F28B39D2-FA8E-5345-BDF4-826A6DA532BA}"/>
-    <hyperlink ref="A31" r:id="rId26" xr:uid="{87F9C6A0-73DA-864E-BBCF-3DED964B81A6}"/>
-    <hyperlink ref="A32" r:id="rId27" xr:uid="{4C75C0E1-D999-4A47-A6CE-48374DCA720A}"/>
+    <hyperlink ref="A22" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
+    <hyperlink ref="A23" r:id="rId16" xr:uid="{766BD39B-BB34-0440-A338-4C76A4F7D8BB}"/>
+    <hyperlink ref="A25" r:id="rId17" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
+    <hyperlink ref="A26" r:id="rId18" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
+    <hyperlink ref="A27" r:id="rId19" xr:uid="{5674BB1E-88BD-DA40-B69E-B05B9CC85877}"/>
+    <hyperlink ref="A28" r:id="rId20" xr:uid="{4DD37E9A-DB13-384A-80A7-D7C64A513979}"/>
+    <hyperlink ref="A24" r:id="rId21" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
+    <hyperlink ref="A29" r:id="rId22" xr:uid="{9C6CBB48-FC6A-0342-820D-131ED63C64BB}"/>
+    <hyperlink ref="A30" r:id="rId23" xr:uid="{DF4F9FBE-2832-FA42-BB71-F5F5C70D9189}"/>
+    <hyperlink ref="A31" r:id="rId24" xr:uid="{49546ABF-9957-9C49-9796-DE8C14512CFE}"/>
+    <hyperlink ref="A32" r:id="rId25" xr:uid="{F28B39D2-FA8E-5345-BDF4-826A6DA532BA}"/>
+    <hyperlink ref="A33" r:id="rId26" xr:uid="{87F9C6A0-73DA-864E-BBCF-3DED964B81A6}"/>
+    <hyperlink ref="A34" r:id="rId27" xr:uid="{4C75C0E1-D999-4A47-A6CE-48374DCA720A}"/>
     <hyperlink ref="A17" r:id="rId28" xr:uid="{3B94FA7D-EDB6-4846-8AAD-381690AF64D0}"/>
     <hyperlink ref="A16" r:id="rId29" xr:uid="{6EDEF3F9-0432-D844-890D-8420F3BC2AF6}"/>
-    <hyperlink ref="A33" r:id="rId30" xr:uid="{514FD178-6D87-C748-A4B8-CC1A014C7AA1}"/>
-    <hyperlink ref="A38" r:id="rId31" xr:uid="{38F43030-17A0-B34A-BD68-ACC35E040FBA}"/>
-    <hyperlink ref="A39" r:id="rId32" xr:uid="{2624432D-2F61-AF48-AEC7-C0D4BA6F7E8A}"/>
-    <hyperlink ref="A40" r:id="rId33" xr:uid="{87E1C4E1-FBF2-3846-9F4F-3B0402F588E3}"/>
-    <hyperlink ref="A41" r:id="rId34" xr:uid="{02911727-80A3-424E-9A27-1C24DB26318B}"/>
-    <hyperlink ref="A42" r:id="rId35" xr:uid="{43EB9E60-EE91-EB43-B6DB-0F5ABE7D4DBA}"/>
-    <hyperlink ref="A43" r:id="rId36" xr:uid="{BD2B19E7-6C63-EE4E-9AC2-095A1062AC51}"/>
-    <hyperlink ref="A45" r:id="rId37" xr:uid="{1CD381A4-4D96-4642-89C9-2EC4CA115633}"/>
-    <hyperlink ref="A44" r:id="rId38" xr:uid="{1C6EDE77-36F5-C148-BA64-2B180A1ABFDA}"/>
-    <hyperlink ref="A46" r:id="rId39" xr:uid="{96C5C09F-499C-B14C-8B1D-D8A2CE7DE56B}"/>
-    <hyperlink ref="A47" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
+    <hyperlink ref="A35" r:id="rId30" xr:uid="{514FD178-6D87-C748-A4B8-CC1A014C7AA1}"/>
+    <hyperlink ref="A40" r:id="rId31" xr:uid="{38F43030-17A0-B34A-BD68-ACC35E040FBA}"/>
+    <hyperlink ref="A41" r:id="rId32" xr:uid="{2624432D-2F61-AF48-AEC7-C0D4BA6F7E8A}"/>
+    <hyperlink ref="A42" r:id="rId33" xr:uid="{87E1C4E1-FBF2-3846-9F4F-3B0402F588E3}"/>
+    <hyperlink ref="A43" r:id="rId34" xr:uid="{02911727-80A3-424E-9A27-1C24DB26318B}"/>
+    <hyperlink ref="A44" r:id="rId35" xr:uid="{43EB9E60-EE91-EB43-B6DB-0F5ABE7D4DBA}"/>
+    <hyperlink ref="A45" r:id="rId36" xr:uid="{BD2B19E7-6C63-EE4E-9AC2-095A1062AC51}"/>
+    <hyperlink ref="A47" r:id="rId37" xr:uid="{1CD381A4-4D96-4642-89C9-2EC4CA115633}"/>
+    <hyperlink ref="A46" r:id="rId38" xr:uid="{1C6EDE77-36F5-C148-BA64-2B180A1ABFDA}"/>
+    <hyperlink ref="A48" r:id="rId39" xr:uid="{96C5C09F-499C-B14C-8B1D-D8A2CE7DE56B}"/>
+    <hyperlink ref="A49" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
+    <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
+    <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A53B7EA-364A-184F-85AB-520D27E3018B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1934FBE-6A4A-5946-946E-74B456DF41DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="560" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16561" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16580" uniqueCount="144">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,48 @@
   <si>
     <t>69. Sqrt(x)</t>
   </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <t>LL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92. Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>25. Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>86. Partition List</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>143. Reorder List</t>
+  </si>
+  <si>
+    <t>61. Rotate List</t>
+  </si>
+  <si>
+    <t>24. Swap Nodes in Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>643. Maximum Average Subarray I</t>
+  </si>
+  <si>
+    <t>Sliding window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>298. Binary Tree Longest Consecutive Sequence</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,6 +635,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -619,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,6 +701,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1704,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD49"/>
+  <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51031,60 +51083,61 @@
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>94</v>
+      <c r="A22" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>99</v>
@@ -51092,7 +51145,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>99</v>
@@ -51100,7 +51153,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>99</v>
@@ -51108,15 +51161,15 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>105</v>
@@ -51124,23 +51177,23 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>103</v>
@@ -51148,7 +51201,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>103</v>
@@ -51156,78 +51209,78 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>108</v>
+      <c r="A36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
+      <c r="A40" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10" t="s">
-        <v>119</v>
+      <c r="A41" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B41" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
+      <c r="A42" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B42" t="s">
         <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
         <v>123</v>
@@ -51235,15 +51288,15 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
         <v>118</v>
@@ -51251,18 +51304,97 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="24">
+      <c r="A51" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -51276,40 +51408,50 @@
     <hyperlink ref="A14" r:id="rId6" xr:uid="{F3E4A9C4-6A0A-8948-A5FB-FA9F1A751097}"/>
     <hyperlink ref="A13" r:id="rId7" xr:uid="{8E133BF9-C63F-F249-9955-323C169F1CD0}"/>
     <hyperlink ref="A8" r:id="rId8" xr:uid="{2B298B48-6932-FF4F-8EE5-7921F9B53285}"/>
-    <hyperlink ref="A21" r:id="rId9" xr:uid="{948C5D30-3E39-D646-854E-0AF8A2BEA6BC}"/>
+    <hyperlink ref="A22" r:id="rId9" xr:uid="{948C5D30-3E39-D646-854E-0AF8A2BEA6BC}"/>
     <hyperlink ref="A9" r:id="rId10" xr:uid="{207046A7-6369-4943-9497-3DDDA230AE02}"/>
     <hyperlink ref="A10" r:id="rId11" xr:uid="{9554DAA6-869C-7C47-85A2-35EF59F4B69B}"/>
     <hyperlink ref="A11" r:id="rId12" xr:uid="{54ACE77D-B3E0-D640-9C64-C02832182CCD}"/>
     <hyperlink ref="A6" r:id="rId13" xr:uid="{55528821-4026-2A44-A8CD-097A87C88BFC}"/>
     <hyperlink ref="A7" r:id="rId14" xr:uid="{EF97A156-4FBE-7A48-AFF6-8BB7AE76BCB4}"/>
-    <hyperlink ref="A22" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
-    <hyperlink ref="A23" r:id="rId16" xr:uid="{766BD39B-BB34-0440-A338-4C76A4F7D8BB}"/>
-    <hyperlink ref="A25" r:id="rId17" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
-    <hyperlink ref="A26" r:id="rId18" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
-    <hyperlink ref="A27" r:id="rId19" xr:uid="{5674BB1E-88BD-DA40-B69E-B05B9CC85877}"/>
-    <hyperlink ref="A28" r:id="rId20" xr:uid="{4DD37E9A-DB13-384A-80A7-D7C64A513979}"/>
-    <hyperlink ref="A24" r:id="rId21" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
-    <hyperlink ref="A29" r:id="rId22" xr:uid="{9C6CBB48-FC6A-0342-820D-131ED63C64BB}"/>
-    <hyperlink ref="A30" r:id="rId23" xr:uid="{DF4F9FBE-2832-FA42-BB71-F5F5C70D9189}"/>
-    <hyperlink ref="A31" r:id="rId24" xr:uid="{49546ABF-9957-9C49-9796-DE8C14512CFE}"/>
-    <hyperlink ref="A32" r:id="rId25" xr:uid="{F28B39D2-FA8E-5345-BDF4-826A6DA532BA}"/>
-    <hyperlink ref="A33" r:id="rId26" xr:uid="{87F9C6A0-73DA-864E-BBCF-3DED964B81A6}"/>
-    <hyperlink ref="A34" r:id="rId27" xr:uid="{4C75C0E1-D999-4A47-A6CE-48374DCA720A}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{6D0B71F9-7DEF-8B48-8DD1-286F2E17BA75}"/>
+    <hyperlink ref="A24" r:id="rId16" xr:uid="{766BD39B-BB34-0440-A338-4C76A4F7D8BB}"/>
+    <hyperlink ref="A26" r:id="rId17" xr:uid="{EEE3D3A7-5702-0343-8051-E434CEDD25EB}"/>
+    <hyperlink ref="A27" r:id="rId18" xr:uid="{A760D7C9-468B-A94D-87BB-07B330FA548C}"/>
+    <hyperlink ref="A28" r:id="rId19" xr:uid="{5674BB1E-88BD-DA40-B69E-B05B9CC85877}"/>
+    <hyperlink ref="A29" r:id="rId20" xr:uid="{4DD37E9A-DB13-384A-80A7-D7C64A513979}"/>
+    <hyperlink ref="A25" r:id="rId21" xr:uid="{13B0E389-560B-5A43-AED1-6DBE2BA74D64}"/>
+    <hyperlink ref="A30" r:id="rId22" xr:uid="{9C6CBB48-FC6A-0342-820D-131ED63C64BB}"/>
+    <hyperlink ref="A31" r:id="rId23" xr:uid="{DF4F9FBE-2832-FA42-BB71-F5F5C70D9189}"/>
+    <hyperlink ref="A32" r:id="rId24" xr:uid="{49546ABF-9957-9C49-9796-DE8C14512CFE}"/>
+    <hyperlink ref="A33" r:id="rId25" xr:uid="{F28B39D2-FA8E-5345-BDF4-826A6DA532BA}"/>
+    <hyperlink ref="A34" r:id="rId26" xr:uid="{87F9C6A0-73DA-864E-BBCF-3DED964B81A6}"/>
+    <hyperlink ref="A35" r:id="rId27" xr:uid="{4C75C0E1-D999-4A47-A6CE-48374DCA720A}"/>
     <hyperlink ref="A17" r:id="rId28" xr:uid="{3B94FA7D-EDB6-4846-8AAD-381690AF64D0}"/>
     <hyperlink ref="A16" r:id="rId29" xr:uid="{6EDEF3F9-0432-D844-890D-8420F3BC2AF6}"/>
-    <hyperlink ref="A35" r:id="rId30" xr:uid="{514FD178-6D87-C748-A4B8-CC1A014C7AA1}"/>
-    <hyperlink ref="A40" r:id="rId31" xr:uid="{38F43030-17A0-B34A-BD68-ACC35E040FBA}"/>
-    <hyperlink ref="A41" r:id="rId32" xr:uid="{2624432D-2F61-AF48-AEC7-C0D4BA6F7E8A}"/>
-    <hyperlink ref="A42" r:id="rId33" xr:uid="{87E1C4E1-FBF2-3846-9F4F-3B0402F588E3}"/>
-    <hyperlink ref="A43" r:id="rId34" xr:uid="{02911727-80A3-424E-9A27-1C24DB26318B}"/>
-    <hyperlink ref="A44" r:id="rId35" xr:uid="{43EB9E60-EE91-EB43-B6DB-0F5ABE7D4DBA}"/>
-    <hyperlink ref="A45" r:id="rId36" xr:uid="{BD2B19E7-6C63-EE4E-9AC2-095A1062AC51}"/>
-    <hyperlink ref="A47" r:id="rId37" xr:uid="{1CD381A4-4D96-4642-89C9-2EC4CA115633}"/>
-    <hyperlink ref="A46" r:id="rId38" xr:uid="{1C6EDE77-36F5-C148-BA64-2B180A1ABFDA}"/>
-    <hyperlink ref="A48" r:id="rId39" xr:uid="{96C5C09F-499C-B14C-8B1D-D8A2CE7DE56B}"/>
-    <hyperlink ref="A49" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
+    <hyperlink ref="A36" r:id="rId30" xr:uid="{514FD178-6D87-C748-A4B8-CC1A014C7AA1}"/>
+    <hyperlink ref="A41" r:id="rId31" xr:uid="{38F43030-17A0-B34A-BD68-ACC35E040FBA}"/>
+    <hyperlink ref="A42" r:id="rId32" xr:uid="{2624432D-2F61-AF48-AEC7-C0D4BA6F7E8A}"/>
+    <hyperlink ref="A43" r:id="rId33" xr:uid="{87E1C4E1-FBF2-3846-9F4F-3B0402F588E3}"/>
+    <hyperlink ref="A44" r:id="rId34" xr:uid="{02911727-80A3-424E-9A27-1C24DB26318B}"/>
+    <hyperlink ref="A45" r:id="rId35" xr:uid="{43EB9E60-EE91-EB43-B6DB-0F5ABE7D4DBA}"/>
+    <hyperlink ref="A46" r:id="rId36" xr:uid="{BD2B19E7-6C63-EE4E-9AC2-095A1062AC51}"/>
+    <hyperlink ref="A48" r:id="rId37" xr:uid="{1CD381A4-4D96-4642-89C9-2EC4CA115633}"/>
+    <hyperlink ref="A47" r:id="rId38" xr:uid="{1C6EDE77-36F5-C148-BA64-2B180A1ABFDA}"/>
+    <hyperlink ref="A49" r:id="rId39" xr:uid="{96C5C09F-499C-B14C-8B1D-D8A2CE7DE56B}"/>
+    <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
+    <hyperlink ref="A53" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A54" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A55" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A56" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A58" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A59" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A57" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A60" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
+    <hyperlink ref="A52" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1934FBE-6A4A-5946-946E-74B456DF41DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1E091-624B-A340-9AF9-348FA4B8F87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16580" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16591" uniqueCount="147">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,16 @@
   <si>
     <t>298. Binary Tree Longest Consecutive Sequence</t>
   </si>
+  <si>
+    <t>549. Binary Tree Longest Consecutive Sequence II</t>
+  </si>
+  <si>
+    <t>64. Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -635,13 +645,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF212121"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -668,7 +671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,9 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1756,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD60"/>
+  <dimension ref="A1:XFD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51326,54 +51326,57 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="24">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>143</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
-        <v>131</v>
+      <c r="A52" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>139</v>
+      <c r="A57" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B57" t="s">
         <v>132</v>
@@ -51381,19 +51384,59 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51442,16 +51485,22 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A53" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A54" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A55" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A56" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A58" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A59" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A57" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A60" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A58" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A59" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A60" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A61" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A63" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A64" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A62" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A65" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
-    <hyperlink ref="A52" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A57" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A51" r:id="rId53" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
+    <hyperlink ref="A52" r:id="rId54" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
+    <hyperlink ref="A53" r:id="rId55" xr:uid="{0533AB32-836A-2248-9AC1-733496EF82B3}"/>
+    <hyperlink ref="A54" r:id="rId56" xr:uid="{862DB625-9BD2-274B-B682-862527081E5B}"/>
+    <hyperlink ref="A55" r:id="rId57" xr:uid="{9778E578-CDDE-E94E-A1F1-33A4AE0AC936}"/>
+    <hyperlink ref="A56" r:id="rId58" xr:uid="{5830E954-1DBB-A547-88DC-6110FE3A3F21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1E091-624B-A340-9AF9-348FA4B8F87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860CB144-8D30-B346-874D-5C21EA534F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16591" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16593" uniqueCount="148">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,10 @@
     <t>DP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1758,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
   <dimension ref="A1:XFD65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51310,7 +51314,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
@@ -51318,7 +51322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
@@ -51326,23 +51330,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
       </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>145</v>
       </c>
@@ -51350,7 +51360,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -51358,7 +51368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -51366,7 +51376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
@@ -51374,7 +51384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
         <v>131</v>
       </c>
@@ -51382,7 +51392,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>133</v>
       </c>
@@ -51390,7 +51400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>134</v>
       </c>
@@ -51398,7 +51408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -51406,7 +51416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>136</v>
       </c>
@@ -51414,7 +51424,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
@@ -51422,12 +51432,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>138</v>
       </c>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860CB144-8D30-B346-874D-5C21EA534F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8FADEE-5C59-6642-B484-DEA5610915EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16593" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16593" uniqueCount="150">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,14 @@
     <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DFS rec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS rec </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1763,7 +1771,7 @@
   <dimension ref="A1:XFD65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51373,7 +51381,7 @@
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -51381,7 +51389,7 @@
         <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4">

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8FADEE-5C59-6642-B484-DEA5610915EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F255B2-E72E-B342-8281-3CE77A96AE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16593" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16597" uniqueCount="151">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,6 +583,9 @@
     <t xml:space="preserve">DFS rec </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>437. Path Sum III</t>
+  </si>
 </sst>
 </file>
 
@@ -1768,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD65"/>
+  <dimension ref="A1:XFD67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51393,24 +51396,24 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="10" t="s">
-        <v>131</v>
+      <c r="A57" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>134</v>
+      <c r="A59" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B59" t="s">
         <v>132</v>
@@ -51418,7 +51421,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
         <v>132</v>
@@ -51426,7 +51429,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
         <v>132</v>
@@ -51434,7 +51437,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
         <v>132</v>
@@ -51442,19 +51445,35 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51503,22 +51522,24 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A58" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A59" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A60" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A61" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A63" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A64" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A62" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A65" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A60" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A61" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A62" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A63" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A65" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A66" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A64" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A67" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
-    <hyperlink ref="A57" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A59" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
     <hyperlink ref="A51" r:id="rId53" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
     <hyperlink ref="A52" r:id="rId54" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
     <hyperlink ref="A53" r:id="rId55" xr:uid="{0533AB32-836A-2248-9AC1-733496EF82B3}"/>
     <hyperlink ref="A54" r:id="rId56" xr:uid="{862DB625-9BD2-274B-B682-862527081E5B}"/>
     <hyperlink ref="A55" r:id="rId57" xr:uid="{9778E578-CDDE-E94E-A1F1-33A4AE0AC936}"/>
     <hyperlink ref="A56" r:id="rId58" xr:uid="{5830E954-1DBB-A547-88DC-6110FE3A3F21}"/>
+    <hyperlink ref="A57" r:id="rId59" xr:uid="{76AE6863-47AC-EE4A-8638-E065EBEE3359}"/>
+    <hyperlink ref="A58" r:id="rId60" xr:uid="{34F595F6-117F-D847-8142-5EE09ED1B542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F255B2-E72E-B342-8281-3CE77A96AE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C60671-C6AD-8845-8DB2-72AD56287C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16597" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16605" uniqueCount="152">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,6 +586,9 @@
   <si>
     <t>437. Path Sum III</t>
   </si>
+  <si>
+    <t>559. Maximum Depth of N-ary Tree</t>
+  </si>
 </sst>
 </file>
 
@@ -1771,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD67"/>
+  <dimension ref="A1:XFD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51412,40 +51415,40 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="10" t="s">
-        <v>131</v>
+      <c r="A59" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>136</v>
+      <c r="A63" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
@@ -51453,7 +51456,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
         <v>132</v>
@@ -51461,19 +51464,51 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51522,16 +51557,16 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A60" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A61" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A62" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A63" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A65" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A66" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A64" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A67" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A64" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A65" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A66" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A67" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A69" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A70" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A68" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A71" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
-    <hyperlink ref="A59" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A63" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
     <hyperlink ref="A51" r:id="rId53" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
     <hyperlink ref="A52" r:id="rId54" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
     <hyperlink ref="A53" r:id="rId55" xr:uid="{0533AB32-836A-2248-9AC1-733496EF82B3}"/>
@@ -51540,6 +51575,10 @@
     <hyperlink ref="A56" r:id="rId58" xr:uid="{5830E954-1DBB-A547-88DC-6110FE3A3F21}"/>
     <hyperlink ref="A57" r:id="rId59" xr:uid="{76AE6863-47AC-EE4A-8638-E065EBEE3359}"/>
     <hyperlink ref="A58" r:id="rId60" xr:uid="{34F595F6-117F-D847-8142-5EE09ED1B542}"/>
+    <hyperlink ref="A59" r:id="rId61" xr:uid="{F35D2F09-3B65-924C-A1A9-99A9A9386E51}"/>
+    <hyperlink ref="A60" r:id="rId62" xr:uid="{510168A3-294F-7342-B072-F5650A3A4183}"/>
+    <hyperlink ref="A61" r:id="rId63" xr:uid="{96293C68-F33D-284F-A6B8-299130C12A5C}"/>
+    <hyperlink ref="A62" r:id="rId64" xr:uid="{28D703BC-1399-0D49-8142-9580B6A9D49C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C60671-C6AD-8845-8DB2-72AD56287C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851E0AD-73DD-2149-937E-F5915BFB80D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16605" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16607" uniqueCount="153">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,9 @@
   <si>
     <t>559. Maximum Depth of N-ary Tree</t>
   </si>
+  <si>
+    <t>589. N-ary Tree Preorder Traversal</t>
+  </si>
 </sst>
 </file>
 
@@ -1774,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD71"/>
+  <dimension ref="A1:XFD72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51447,16 +51450,16 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="10" t="s">
-        <v>131</v>
+      <c r="A63" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>133</v>
+      <c r="A64" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B64" t="s">
         <v>132</v>
@@ -51464,7 +51467,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
         <v>132</v>
@@ -51472,7 +51475,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
         <v>132</v>
@@ -51480,7 +51483,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
         <v>132</v>
@@ -51488,7 +51491,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
@@ -51496,19 +51499,27 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51557,16 +51568,16 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A64" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A65" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A66" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A67" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A69" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A70" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A68" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A71" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A65" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A66" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A67" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A68" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A70" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A71" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A69" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A72" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
-    <hyperlink ref="A63" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A64" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
     <hyperlink ref="A51" r:id="rId53" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
     <hyperlink ref="A52" r:id="rId54" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
     <hyperlink ref="A53" r:id="rId55" xr:uid="{0533AB32-836A-2248-9AC1-733496EF82B3}"/>
@@ -51579,6 +51590,7 @@
     <hyperlink ref="A60" r:id="rId62" xr:uid="{510168A3-294F-7342-B072-F5650A3A4183}"/>
     <hyperlink ref="A61" r:id="rId63" xr:uid="{96293C68-F33D-284F-A6B8-299130C12A5C}"/>
     <hyperlink ref="A62" r:id="rId64" xr:uid="{28D703BC-1399-0D49-8142-9580B6A9D49C}"/>
+    <hyperlink ref="A63" r:id="rId65" xr:uid="{BE978A7E-90B6-E64B-AC24-6864F514EBE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851E0AD-73DD-2149-937E-F5915BFB80D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09E3FC-F265-4140-9FD7-40A306CFDD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16607" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16611" uniqueCount="156">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,6 +592,18 @@
   <si>
     <t>589. N-ary Tree Preorder Traversal</t>
   </si>
+  <si>
+    <t>94. Binary Tree Inorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145. Binary Tree Postorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS iter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1777,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD72"/>
+  <dimension ref="A1:XFD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51458,24 +51470,24 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="10" t="s">
-        <v>131</v>
+      <c r="A64" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>134</v>
+      <c r="A66" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B66" t="s">
         <v>132</v>
@@ -51483,7 +51495,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
         <v>132</v>
@@ -51491,7 +51503,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
@@ -51499,7 +51511,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
         <v>132</v>
@@ -51507,19 +51519,35 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51568,16 +51596,16 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A65" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A66" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A67" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A68" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A70" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A71" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A69" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A72" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A67" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A68" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A69" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A70" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A72" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A73" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A71" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A74" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
-    <hyperlink ref="A64" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A66" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
     <hyperlink ref="A51" r:id="rId53" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
     <hyperlink ref="A52" r:id="rId54" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
     <hyperlink ref="A53" r:id="rId55" xr:uid="{0533AB32-836A-2248-9AC1-733496EF82B3}"/>
@@ -51591,6 +51619,8 @@
     <hyperlink ref="A61" r:id="rId63" xr:uid="{96293C68-F33D-284F-A6B8-299130C12A5C}"/>
     <hyperlink ref="A62" r:id="rId64" xr:uid="{28D703BC-1399-0D49-8142-9580B6A9D49C}"/>
     <hyperlink ref="A63" r:id="rId65" xr:uid="{BE978A7E-90B6-E64B-AC24-6864F514EBE6}"/>
+    <hyperlink ref="A64" r:id="rId66" xr:uid="{33242C03-0448-EF40-89A2-FEEAA10C5BA1}"/>
+    <hyperlink ref="A65" r:id="rId67" xr:uid="{C80378E5-484E-714C-869B-5F2A593282C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED09E3FC-F265-4140-9FD7-40A306CFDD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095D8DB-F654-074A-A425-5CDFC67C746D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16611" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16617" uniqueCount="158">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,6 +604,12 @@
     <t>DFS iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>285. Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>236. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
 </sst>
 </file>
 
@@ -1789,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD74"/>
+  <dimension ref="A1:XFD77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51486,32 +51492,32 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
-        <v>131</v>
+      <c r="A66" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>135</v>
+      <c r="A69" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B69" t="s">
         <v>132</v>
@@ -51519,7 +51525,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
         <v>132</v>
@@ -51527,7 +51533,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
         <v>132</v>
@@ -51535,19 +51541,43 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51596,31 +51626,34 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A67" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A68" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A69" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A70" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A72" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A73" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A71" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A74" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A70" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A71" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A72" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A73" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A75" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A76" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A74" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A77" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
-    <hyperlink ref="A66" r:id="rId52" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
-    <hyperlink ref="A51" r:id="rId53" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
-    <hyperlink ref="A52" r:id="rId54" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
-    <hyperlink ref="A53" r:id="rId55" xr:uid="{0533AB32-836A-2248-9AC1-733496EF82B3}"/>
-    <hyperlink ref="A54" r:id="rId56" xr:uid="{862DB625-9BD2-274B-B682-862527081E5B}"/>
-    <hyperlink ref="A55" r:id="rId57" xr:uid="{9778E578-CDDE-E94E-A1F1-33A4AE0AC936}"/>
-    <hyperlink ref="A56" r:id="rId58" xr:uid="{5830E954-1DBB-A547-88DC-6110FE3A3F21}"/>
-    <hyperlink ref="A57" r:id="rId59" xr:uid="{76AE6863-47AC-EE4A-8638-E065EBEE3359}"/>
-    <hyperlink ref="A58" r:id="rId60" xr:uid="{34F595F6-117F-D847-8142-5EE09ED1B542}"/>
-    <hyperlink ref="A59" r:id="rId61" xr:uid="{F35D2F09-3B65-924C-A1A9-99A9A9386E51}"/>
-    <hyperlink ref="A60" r:id="rId62" xr:uid="{510168A3-294F-7342-B072-F5650A3A4183}"/>
-    <hyperlink ref="A61" r:id="rId63" xr:uid="{96293C68-F33D-284F-A6B8-299130C12A5C}"/>
-    <hyperlink ref="A62" r:id="rId64" xr:uid="{28D703BC-1399-0D49-8142-9580B6A9D49C}"/>
-    <hyperlink ref="A63" r:id="rId65" xr:uid="{BE978A7E-90B6-E64B-AC24-6864F514EBE6}"/>
-    <hyperlink ref="A64" r:id="rId66" xr:uid="{33242C03-0448-EF40-89A2-FEEAA10C5BA1}"/>
-    <hyperlink ref="A65" r:id="rId67" xr:uid="{C80378E5-484E-714C-869B-5F2A593282C3}"/>
+    <hyperlink ref="A51" r:id="rId52" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
+    <hyperlink ref="A52" r:id="rId53" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
+    <hyperlink ref="A53" r:id="rId54" xr:uid="{0533AB32-836A-2248-9AC1-733496EF82B3}"/>
+    <hyperlink ref="A54" r:id="rId55" xr:uid="{862DB625-9BD2-274B-B682-862527081E5B}"/>
+    <hyperlink ref="A55" r:id="rId56" xr:uid="{9778E578-CDDE-E94E-A1F1-33A4AE0AC936}"/>
+    <hyperlink ref="A56" r:id="rId57" xr:uid="{5830E954-1DBB-A547-88DC-6110FE3A3F21}"/>
+    <hyperlink ref="A57" r:id="rId58" xr:uid="{76AE6863-47AC-EE4A-8638-E065EBEE3359}"/>
+    <hyperlink ref="A58" r:id="rId59" xr:uid="{34F595F6-117F-D847-8142-5EE09ED1B542}"/>
+    <hyperlink ref="A59" r:id="rId60" xr:uid="{F35D2F09-3B65-924C-A1A9-99A9A9386E51}"/>
+    <hyperlink ref="A60" r:id="rId61" xr:uid="{510168A3-294F-7342-B072-F5650A3A4183}"/>
+    <hyperlink ref="A61" r:id="rId62" xr:uid="{96293C68-F33D-284F-A6B8-299130C12A5C}"/>
+    <hyperlink ref="A62" r:id="rId63" xr:uid="{28D703BC-1399-0D49-8142-9580B6A9D49C}"/>
+    <hyperlink ref="A63" r:id="rId64" xr:uid="{BE978A7E-90B6-E64B-AC24-6864F514EBE6}"/>
+    <hyperlink ref="A64" r:id="rId65" xr:uid="{33242C03-0448-EF40-89A2-FEEAA10C5BA1}"/>
+    <hyperlink ref="A65" r:id="rId66" xr:uid="{C80378E5-484E-714C-869B-5F2A593282C3}"/>
+    <hyperlink ref="A69" r:id="rId67" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A67" r:id="rId68" xr:uid="{3BC155B7-FFB6-E64C-A22D-C2F7835083E2}"/>
+    <hyperlink ref="A66" r:id="rId69" xr:uid="{C6E0F92C-60AF-5F4B-A33C-5545DC3F7DDD}"/>
+    <hyperlink ref="A68" r:id="rId70" xr:uid="{F40EDE9C-1A33-1246-91F5-BB5FCD7EBE2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095D8DB-F654-074A-A425-5CDFC67C746D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1270CF2-F845-7947-9069-25231139AD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16617" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16623" uniqueCount="160">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,6 +610,13 @@
   <si>
     <t>236. Lowest Common Ancestor of a Binary Tree</t>
   </si>
+  <si>
+    <t>449. Serialize and Deserialize BST</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversalhttps://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1795,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD77"/>
+  <dimension ref="A1:XFD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51516,32 +51523,32 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
-        <v>131</v>
+      <c r="A69" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>135</v>
+      <c r="A72" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B72" t="s">
         <v>132</v>
@@ -51549,7 +51556,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
         <v>132</v>
@@ -51557,7 +51564,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
         <v>132</v>
@@ -51565,19 +51572,43 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="B75" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51626,14 +51657,14 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A70" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A71" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A72" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A73" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A75" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A76" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A74" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A77" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A73" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A74" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A75" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A76" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A78" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A79" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A77" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A80" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
     <hyperlink ref="A51" r:id="rId52" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
     <hyperlink ref="A52" r:id="rId53" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
@@ -51650,10 +51681,13 @@
     <hyperlink ref="A63" r:id="rId64" xr:uid="{BE978A7E-90B6-E64B-AC24-6864F514EBE6}"/>
     <hyperlink ref="A64" r:id="rId65" xr:uid="{33242C03-0448-EF40-89A2-FEEAA10C5BA1}"/>
     <hyperlink ref="A65" r:id="rId66" xr:uid="{C80378E5-484E-714C-869B-5F2A593282C3}"/>
-    <hyperlink ref="A69" r:id="rId67" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
-    <hyperlink ref="A67" r:id="rId68" xr:uid="{3BC155B7-FFB6-E64C-A22D-C2F7835083E2}"/>
-    <hyperlink ref="A66" r:id="rId69" xr:uid="{C6E0F92C-60AF-5F4B-A33C-5545DC3F7DDD}"/>
-    <hyperlink ref="A68" r:id="rId70" xr:uid="{F40EDE9C-1A33-1246-91F5-BB5FCD7EBE2A}"/>
+    <hyperlink ref="A72" r:id="rId67" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A66" r:id="rId68" xr:uid="{C6E0F92C-60AF-5F4B-A33C-5545DC3F7DDD}"/>
+    <hyperlink ref="A68" r:id="rId69" xr:uid="{F40EDE9C-1A33-1246-91F5-BB5FCD7EBE2A}"/>
+    <hyperlink ref="A67" r:id="rId70" xr:uid="{3BC155B7-FFB6-E64C-A22D-C2F7835083E2}"/>
+    <hyperlink ref="A70" r:id="rId71" xr:uid="{B8D58E8A-2F06-7D41-9406-78EED55E92AF}"/>
+    <hyperlink ref="A69" r:id="rId72" xr:uid="{42123F21-E3F2-4342-BAF4-77E128CE75A2}"/>
+    <hyperlink ref="A71" r:id="rId73" xr:uid="{5EAF86C7-9C68-D447-B0B7-17CA1B9ADD07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1270CF2-F845-7947-9069-25231139AD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923FCA6-F215-E94B-BE3D-90DE58C5BB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="520" windowWidth="15600" windowHeight="17040" activeTab="2" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
+    <workbookView xWindow="22800" yWindow="1240" windowWidth="15600" windowHeight="17040" activeTab="3" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="dailyprep" sheetId="2" r:id="rId2"/>
     <sheet name="2nd round" sheetId="3" r:id="rId3"/>
-    <sheet name="fbDE" sheetId="4" r:id="rId4"/>
+    <sheet name="High_freq" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16623" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16630" uniqueCount="164">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,19 @@
     <t>105. Construct Binary Tree from Preorder and Inorder Traversalhttps://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>136. Single Number</t>
+  </si>
+  <si>
+    <t>137. Single Number II</t>
+  </si>
+  <si>
+    <t>131. Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1069,7 +1082,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1245,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F99C9D-4A95-A144-A8D9-08B330D64260}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1802,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F640C17-91AC-C644-898C-AE09E561F2A8}">
-  <dimension ref="A1:XFD80"/>
+  <dimension ref="A1:XFD82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51490,7 +51503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>154</v>
       </c>
@@ -51498,7 +51511,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>156</v>
       </c>
@@ -51506,7 +51519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>106</v>
       </c>
@@ -51514,7 +51527,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
@@ -51522,7 +51535,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
@@ -51530,7 +51543,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>158</v>
       </c>
@@ -51538,77 +51551,90 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="B72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="B74" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B75" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>132</v>
       </c>
     </row>
@@ -51657,14 +51683,14 @@
     <hyperlink ref="A50" r:id="rId40" xr:uid="{CBFCC9C2-A7F4-BA4C-80FC-F6C5156B0423}"/>
     <hyperlink ref="A19" r:id="rId41" xr:uid="{1CD0F168-3B38-1040-B4D0-463CEDF366F9}"/>
     <hyperlink ref="A18" r:id="rId42" xr:uid="{39F59D0F-1DCD-1C44-B36B-F5123C5358EC}"/>
-    <hyperlink ref="A73" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
-    <hyperlink ref="A74" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
-    <hyperlink ref="A75" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
-    <hyperlink ref="A76" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
-    <hyperlink ref="A78" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
-    <hyperlink ref="A79" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
-    <hyperlink ref="A77" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
-    <hyperlink ref="A80" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
+    <hyperlink ref="A75" r:id="rId43" xr:uid="{3D73B1A0-72BF-2545-9843-F662237C1883}"/>
+    <hyperlink ref="A76" r:id="rId44" xr:uid="{B618FE65-AF17-0C45-9FA1-900A7934A0DE}"/>
+    <hyperlink ref="A77" r:id="rId45" xr:uid="{2470A8E3-57F6-D54E-965E-FB3716CA2683}"/>
+    <hyperlink ref="A78" r:id="rId46" xr:uid="{16B9E994-9FF5-DA4E-89A2-184955D81A93}"/>
+    <hyperlink ref="A80" r:id="rId47" xr:uid="{3BDA2546-91DE-8B4B-98C5-C17E7D5FEB91}"/>
+    <hyperlink ref="A81" r:id="rId48" xr:uid="{36B4656C-DBC8-624C-939B-7DEAAB3F91D3}"/>
+    <hyperlink ref="A79" r:id="rId49" xr:uid="{062F0229-D3FA-E144-B72F-B07D07FFB236}"/>
+    <hyperlink ref="A82" r:id="rId50" xr:uid="{030A43D4-5462-2246-B526-795CBBC3B653}"/>
     <hyperlink ref="A20" r:id="rId51" xr:uid="{0D0C3C3D-78E0-0747-B34F-57F309831F4A}"/>
     <hyperlink ref="A51" r:id="rId52" xr:uid="{CB92E798-D66D-AC46-A453-91826680C432}"/>
     <hyperlink ref="A52" r:id="rId53" xr:uid="{B8246002-BC83-7C46-8A17-72CC7A209E97}"/>
@@ -51681,13 +51707,14 @@
     <hyperlink ref="A63" r:id="rId64" xr:uid="{BE978A7E-90B6-E64B-AC24-6864F514EBE6}"/>
     <hyperlink ref="A64" r:id="rId65" xr:uid="{33242C03-0448-EF40-89A2-FEEAA10C5BA1}"/>
     <hyperlink ref="A65" r:id="rId66" xr:uid="{C80378E5-484E-714C-869B-5F2A593282C3}"/>
-    <hyperlink ref="A72" r:id="rId67" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
+    <hyperlink ref="A74" r:id="rId67" xr:uid="{0E4634DC-37E9-4F44-8620-EAD3B248C5D5}"/>
     <hyperlink ref="A66" r:id="rId68" xr:uid="{C6E0F92C-60AF-5F4B-A33C-5545DC3F7DDD}"/>
     <hyperlink ref="A68" r:id="rId69" xr:uid="{F40EDE9C-1A33-1246-91F5-BB5FCD7EBE2A}"/>
     <hyperlink ref="A67" r:id="rId70" xr:uid="{3BC155B7-FFB6-E64C-A22D-C2F7835083E2}"/>
     <hyperlink ref="A70" r:id="rId71" xr:uid="{B8D58E8A-2F06-7D41-9406-78EED55E92AF}"/>
     <hyperlink ref="A69" r:id="rId72" xr:uid="{42123F21-E3F2-4342-BAF4-77E128CE75A2}"/>
-    <hyperlink ref="A71" r:id="rId73" xr:uid="{5EAF86C7-9C68-D447-B0B7-17CA1B9ADD07}"/>
+    <hyperlink ref="A72" r:id="rId73" xr:uid="{5EAF86C7-9C68-D447-B0B7-17CA1B9ADD07}"/>
+    <hyperlink ref="A71" r:id="rId74" xr:uid="{1466C09C-83D4-C948-A2FA-360DC374DCB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51695,10 +51722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CCA028-BA62-CB4F-A46F-255136D39D4B}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51706,14 +51733,34 @@
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1"/>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{E03FEA42-86E4-EE4D-A7D2-B446D376A602}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{42F1948D-1ADF-8840-98A3-454ABD60C56A}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{32191A0B-F8AD-B04A-A7B0-02712AD39216}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3923FCA6-F215-E94B-BE3D-90DE58C5BB71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66ABE1-EBAF-6E42-9777-66A1B86CA6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22800" yWindow="1240" windowWidth="15600" windowHeight="17040" activeTab="3" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16630" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16633" uniqueCount="167">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,6 +630,18 @@
     <t>xor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Leetcode East Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>443. String Compression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -51722,10 +51734,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CCA028-BA62-CB4F-A46F-255136D39D4B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51754,12 +51766,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{E03FEA42-86E4-EE4D-A7D2-B446D376A602}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{42F1948D-1ADF-8840-98A3-454ABD60C56A}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{32191A0B-F8AD-B04A-A7B0-02712AD39216}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{3FC5CD13-A2D8-1B40-9A54-024F8C66F499}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF66ABE1-EBAF-6E42-9777-66A1B86CA6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A9B43-61F5-B54A-8A4A-E2EC5570EC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22800" yWindow="1240" windowWidth="15600" windowHeight="17040" activeTab="3" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16633" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16639" uniqueCount="173">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,28 @@
     <t>Two pointer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>387. First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231. Power of Two</t>
+  </si>
+  <si>
+    <t>Bitwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>657. Robot Return to Origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -51734,10 +51756,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CCA028-BA62-CB4F-A46F-255136D39D4B}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51779,6 +51801,30 @@
         <v>166</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -51786,6 +51832,9 @@
     <hyperlink ref="A2" r:id="rId2" xr:uid="{42F1948D-1ADF-8840-98A3-454ABD60C56A}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{32191A0B-F8AD-B04A-A7B0-02712AD39216}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{3FC5CD13-A2D8-1B40-9A54-024F8C66F499}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{CDF36F3E-57EB-E64D-AAB3-88E33D8EA001}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{A8AA2DC1-0D2C-2148-90A1-C9BA32A925FE}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{3EC795F5-56E1-8449-B9BE-7216454AA735}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/practice_list.xlsx
+++ b/practice_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayueli/Documents/GitHub/leetcodeprac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A9B43-61F5-B54A-8A4A-E2EC5570EC34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039F9613-950B-2E4F-8DCB-BA962464C6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22800" yWindow="1240" windowWidth="15600" windowHeight="17040" activeTab="3" xr2:uid="{78846A1B-B955-3947-A272-24488632A541}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16639" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16643" uniqueCount="175">
   <si>
     <t>Search a 2D Matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,6 +664,12 @@
     <t>Simulation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>27. Remove Element</t>
+  </si>
 </sst>
 </file>
 
@@ -51756,10 +51762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CCA028-BA62-CB4F-A46F-255136D39D4B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51823,6 +51829,22 @@
       </c>
       <c r="B9" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -51835,6 +51857,8 @@
     <hyperlink ref="A7" r:id="rId5" xr:uid="{CDF36F3E-57EB-E64D-AAB3-88E33D8EA001}"/>
     <hyperlink ref="A8" r:id="rId6" xr:uid="{A8AA2DC1-0D2C-2148-90A1-C9BA32A925FE}"/>
     <hyperlink ref="A9" r:id="rId7" xr:uid="{3EC795F5-56E1-8449-B9BE-7216454AA735}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{5A5C257C-3198-CC43-BCB6-697CE86BFAAA}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{09F532FE-319A-2A4F-90F6-2B5108503AD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
